--- a/saved_model/specs/15_min.xlsx
+++ b/saved_model/specs/15_min.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>delay</t>
   </si>
@@ -52,19 +52,16 @@
     <t>20200101</t>
   </si>
   <si>
-    <t>20200731</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>18%</t>
+    <t>20210130</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>40%</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5891647855530474</v>
+        <v>0.5532819558862609</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -469,7 +466,7 @@
         <v>25</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -477,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.665</v>
+        <v>0.5500495540138751</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -498,83 +495,13 @@
         <v>0.05</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.5496402877697841</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>0.8</v>
-      </c>
-      <c r="H4">
-        <v>0.05</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.601078167115903</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-      <c r="H5">
-        <v>0.05</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/saved_model/specs/15_min.xlsx
+++ b/saved_model/specs/15_min.xlsx
@@ -58,10 +58,10 @@
     <t>50%</t>
   </si>
   <si>
-    <t>47%</t>
-  </si>
-  <si>
     <t>40%</t>
+  </si>
+  <si>
+    <t>49%</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,12 +495,47 @@
         <v>0.05</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>25</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.5568974771873323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
     </row>

--- a/saved_model/specs/15_min.xlsx
+++ b/saved_model/specs/15_min.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>delay</t>
   </si>
@@ -49,19 +49,49 @@
     <t>n_hidd_layer</t>
   </si>
   <si>
-    <t>20200101</t>
-  </si>
-  <si>
-    <t>20210130</t>
-  </si>
-  <si>
-    <t>50%</t>
+    <t>20180101</t>
+  </si>
+  <si>
+    <t>20200630</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>16%</t>
   </si>
   <si>
     <t>40%</t>
   </si>
   <si>
-    <t>49%</t>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>38%</t>
   </si>
 </sst>
 </file>
@@ -393,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5532819558862609</v>
+        <v>0.5852401566687281</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -466,7 +496,7 @@
         <v>25</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -474,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5500495540138751</v>
+        <v>0.5735150925024343</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -501,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -509,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5568974771873323</v>
+        <v>0.5654579874763361</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -536,7 +566,567 @@
         <v>25</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.5874371859296482</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.5556608242539081</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.5599369085173501</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.5506479284540975</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.5573413694960656</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.557404838958237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.5537203870537204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.5627102354637193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.5537492379597643</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.5729939908094733</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.566174382277762</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0.8</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.5707517372078332</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.5660717504957635</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.5675152597885961</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0.8</v>
+      </c>
+      <c r="H18">
+        <v>0.05</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.5745820483687714</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.5682161183217628</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
